--- a/Rural Residential_Freq_UseCode_Description.xlsx
+++ b/Rural Residential_Freq_UseCode_Description.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>GSA_Jurisdiction_Prelim</t>
   </si>
@@ -70,192 +70,192 @@
     <t>Pasture w/residence</t>
   </si>
   <si>
+    <t>Rural residential w/misc residential imp</t>
+  </si>
+  <si>
     <t>Pasture with residence</t>
   </si>
   <si>
+    <t>Two sfd on single parcel</t>
+  </si>
+  <si>
+    <t>Irrigated vineyard w/residence</t>
+  </si>
+  <si>
     <t>Sfd w/granny unit</t>
   </si>
   <si>
-    <t>Rural residential w/misc residential imp</t>
-  </si>
-  <si>
-    <t>Two sfd on single parcel</t>
-  </si>
-  <si>
-    <t>Irrigated vineyard w/residence</t>
-  </si>
-  <si>
     <t>Dairy w/residence</t>
   </si>
   <si>
     <t>4 units/2 or more structures</t>
   </si>
   <si>
+    <t>Rural res w/misc res imp</t>
+  </si>
+  <si>
+    <t>Manufactured home on urban lot</t>
+  </si>
+  <si>
+    <t>Field crops with residence</t>
+  </si>
+  <si>
+    <t>One duplex (one structure)</t>
+  </si>
+  <si>
+    <t>3 units/2 or more structures</t>
+  </si>
+  <si>
+    <t>5-10 residential units/2+ structures</t>
+  </si>
+  <si>
+    <t>Non-irrigated vineyard w/residence</t>
+  </si>
+  <si>
+    <t>Sfd non-conforming use</t>
+  </si>
+  <si>
+    <t>Chicken ranch w/residence</t>
+  </si>
+  <si>
+    <t>Rural res/secondary use</t>
+  </si>
+  <si>
+    <t>Detached unit in a pud</t>
+  </si>
+  <si>
+    <t>Irrigated pasture w/residence</t>
+  </si>
+  <si>
+    <t>Irr vineyd/premium w/manufactured home</t>
+  </si>
+  <si>
+    <t>Sfd secondary use</t>
+  </si>
+  <si>
+    <t>Horse ranch w/residence</t>
+  </si>
+  <si>
+    <t>Pasture w/manufactured home</t>
+  </si>
+  <si>
+    <t>Non-irrigated vineyard w/res</t>
+  </si>
+  <si>
+    <t>Field crops w/residence</t>
+  </si>
+  <si>
+    <t>Pasture with manufactured home</t>
+  </si>
+  <si>
+    <t>11-20 residential unit/2+ structures</t>
+  </si>
+  <si>
+    <t>21-40 units</t>
+  </si>
+  <si>
+    <t>Manufactured home park</t>
+  </si>
+  <si>
+    <t>Horse ranch w/res</t>
+  </si>
+  <si>
+    <t>Non-irr vineyd/varietals w/residence</t>
+  </si>
+  <si>
+    <t>5-10 residential units/1 structure</t>
+  </si>
+  <si>
+    <t>Hardwoods &amp; chaparral w/residence</t>
+  </si>
+  <si>
+    <t>Irrigated vineyard w/manufactured home</t>
+  </si>
+  <si>
+    <t>Hardwoods and chaparral w/res</t>
+  </si>
+  <si>
+    <t>5-10 res units/2+ structures</t>
+  </si>
+  <si>
+    <t>Irrigated orchard w/residence</t>
+  </si>
+  <si>
+    <t>Non-irrigated orchard w/residence</t>
+  </si>
+  <si>
+    <t>Common area w/o structures</t>
+  </si>
+  <si>
+    <t>Non-irrigated orchard w/res</t>
+  </si>
+  <si>
+    <t>Non-irr vineyd/varietals w/res</t>
+  </si>
+  <si>
+    <t>Horse ranch w/2 or more residences</t>
+  </si>
+  <si>
+    <t>Motel/50 units or less w/shops</t>
+  </si>
+  <si>
+    <t>Over 100 units</t>
+  </si>
+  <si>
     <t>Enforceably restricted dwelling</t>
   </si>
   <si>
-    <t>Rural res w/misc res imp</t>
-  </si>
-  <si>
-    <t>One duplex (one structure)</t>
-  </si>
-  <si>
-    <t>Manufactured home on urban lot</t>
-  </si>
-  <si>
-    <t>Field crops with residence</t>
-  </si>
-  <si>
-    <t>3 units/2 or more structures</t>
-  </si>
-  <si>
-    <t>5-10 residential units/2+ structures</t>
-  </si>
-  <si>
-    <t>Non-irrigated vineyard w/residence</t>
-  </si>
-  <si>
-    <t>Sfd non-conforming use</t>
-  </si>
-  <si>
-    <t>Chicken ranch w/residence</t>
-  </si>
-  <si>
-    <t>Rural res/secondary use</t>
-  </si>
-  <si>
-    <t>Detached unit in a pud</t>
-  </si>
-  <si>
-    <t>Manufactured home park</t>
-  </si>
-  <si>
-    <t>Irrigated pasture w/residence</t>
-  </si>
-  <si>
-    <t>Irr vineyd/premium w/manufactured home</t>
-  </si>
-  <si>
-    <t>Sfd secondary use</t>
-  </si>
-  <si>
-    <t>Horse ranch w/residence</t>
-  </si>
-  <si>
-    <t>Pasture w/manufactured home</t>
-  </si>
-  <si>
-    <t>Non-irrigated vineyard w/res</t>
-  </si>
-  <si>
-    <t>Field crops w/residence</t>
-  </si>
-  <si>
-    <t>Pasture with manufactured home</t>
-  </si>
-  <si>
-    <t>11-20 residential unit/2+ structures</t>
-  </si>
-  <si>
-    <t>21-40 units</t>
-  </si>
-  <si>
-    <t>Non-irr vineyd/varietals w/residence</t>
-  </si>
-  <si>
-    <t>Hardwoods &amp; chaparral w/residence</t>
-  </si>
-  <si>
-    <t>Non-irrigated orchard w/residence</t>
-  </si>
-  <si>
-    <t>5-10 residential units/1 structure</t>
-  </si>
-  <si>
-    <t>Hardwoods and chaparral w/res</t>
-  </si>
-  <si>
-    <t>Irrigated vineyard w/manufactured home</t>
-  </si>
-  <si>
-    <t>5-10 res units/2+ structures</t>
-  </si>
-  <si>
-    <t>Irrigated orchard w/residence</t>
-  </si>
-  <si>
-    <t>Horse ranch w/res</t>
-  </si>
-  <si>
-    <t>Common area w/o structures</t>
-  </si>
-  <si>
-    <t>Non-irrigated orchard w/res</t>
-  </si>
-  <si>
-    <t>Non-irr vineyd/varietals w/res</t>
-  </si>
-  <si>
-    <t>Horse ranch w/2 or more residences</t>
-  </si>
-  <si>
-    <t>Motel/50 units or less w/shops</t>
-  </si>
-  <si>
-    <t>Over 100 units</t>
+    <t>Bed &amp; breakfast inn</t>
+  </si>
+  <si>
+    <t>11-20 residential unit/1 structure</t>
+  </si>
+  <si>
+    <t>Horse ranch w/2 or more res</t>
+  </si>
+  <si>
+    <t>Single fourplex</t>
+  </si>
+  <si>
+    <t>Rural res/vacant homesite</t>
+  </si>
+  <si>
+    <t>Single triplex 3 units/1 structure</t>
+  </si>
+  <si>
+    <t>Trailer park (resort type)</t>
+  </si>
+  <si>
+    <t>School district property</t>
+  </si>
+  <si>
+    <t>11-20 res unit/2+ structures</t>
+  </si>
+  <si>
+    <t>Land converting to vineyard/orchard w/residence</t>
+  </si>
+  <si>
+    <t>Other poultry ranch w/residence</t>
+  </si>
+  <si>
+    <t>Motel/50 units or less w/kitchen</t>
+  </si>
+  <si>
+    <t>Mixture w/residence or manufactured home</t>
+  </si>
+  <si>
+    <t>Irrigated truck crops w/res</t>
+  </si>
+  <si>
+    <t>Horse ranch w/manufacturedhome</t>
+  </si>
+  <si>
+    <t>Horse ranch</t>
   </si>
   <si>
     <t>Enforceably restricted apts</t>
   </si>
   <si>
-    <t>Bed &amp; breakfast inn</t>
-  </si>
-  <si>
-    <t>Manufactured home park w/overnite facilities</t>
-  </si>
-  <si>
-    <t>11-20 residential unit/1 structure</t>
-  </si>
-  <si>
-    <t>Horse ranch w/2 or more res</t>
-  </si>
-  <si>
-    <t>Single fourplex</t>
-  </si>
-  <si>
-    <t>Single triplex 3 units/1 structure</t>
-  </si>
-  <si>
-    <t>Taxable manufactured home/rented site</t>
-  </si>
-  <si>
-    <t>School district property</t>
-  </si>
-  <si>
-    <t>Trailer park (resort type)</t>
-  </si>
-  <si>
-    <t>11-20 res unit/2+ structures</t>
-  </si>
-  <si>
-    <t>Land converting to vineyard/orchard w/residence</t>
-  </si>
-  <si>
-    <t>Other poultry ranch w/residence</t>
-  </si>
-  <si>
-    <t>Motel/50 units or less w/kitchen</t>
-  </si>
-  <si>
-    <t>Mixture w/residence or manufactured home</t>
-  </si>
-  <si>
-    <t>Irrigated truck crops w/res</t>
-  </si>
-  <si>
-    <t>Horse ranch w/manufacturedhome</t>
-  </si>
-  <si>
     <t>Duet</t>
   </si>
   <si>
@@ -265,13 +265,7 @@
     <t>Condominium unit</t>
   </si>
   <si>
-    <t>Common area without structures</t>
-  </si>
-  <si>
     <t>Chicken ranch w/manufactured home</t>
-  </si>
-  <si>
-    <t>Attached unit</t>
   </si>
   <si>
     <t>5-10 res units/1 structure</t>
@@ -638,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3213</v>
+        <v>3192</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3213</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -700,13 +694,13 @@
         <v>49</v>
       </c>
       <c r="C5">
-        <v>1767</v>
+        <v>1689</v>
       </c>
       <c r="D5">
-        <v>501</v>
+        <v>298</v>
       </c>
       <c r="E5">
-        <v>2317</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -720,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E6">
-        <v>1400</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -734,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -785,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -839,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -853,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -867,13 +861,13 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>88</v>
@@ -884,13 +878,13 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C16">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>88</v>
@@ -901,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -921,13 +915,13 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -935,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -972,13 +966,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -986,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
         <v>39</v>
-      </c>
-      <c r="E22">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1003,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1020,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="C24">
-        <v>25</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1037,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>22</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1054,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1071,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1091,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1108,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1122,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1139,13 +1133,13 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>16</v>
@@ -1159,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1176,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1190,13 +1184,13 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -1207,13 +1201,13 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>10</v>
@@ -1224,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1241,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1261,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1278,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1292,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1312,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1326,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1346,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1360,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1465,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
         <v>4</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -1482,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>4</v>
@@ -1499,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -1513,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
         <v>3</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1530,13 +1524,13 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -1547,13 +1541,13 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -1567,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -1584,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1601,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -1635,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -1666,13 +1660,13 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -1686,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1700,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1751,10 +1745,10 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1768,13 +1762,13 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -1805,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -1853,10 +1847,10 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1870,10 +1864,10 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1887,10 +1881,10 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1904,13 +1898,13 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -1975,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -1992,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2026,46 +2020,12 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
         <v>1</v>
       </c>
     </row>
